--- a/document/요구사항정의서_통합_20180809_V0.1.xlsx
+++ b/document/요구사항정의서_통합_20180809_V0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -903,6 +903,9 @@
   <si>
     <t>승차권 인쇄 버튼을 누를 시, 예매자의 이름과 여정정보, 좌석정보를 담은 txt파일이 print 폴더에 형성된다.</t>
   </si>
+  <si>
+    <t>요구사항 정의서0</t>
+  </si>
 </sst>
 </file>
 
@@ -911,7 +914,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1042,18 +1045,6 @@
       <color rgb="FF9C6500"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1078,173 +1069,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="100">
+  <borders count="91">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1255,9 +1276,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1266,9 +1285,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1279,9 +1296,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1294,9 +1309,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1307,9 +1320,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1322,9 +1333,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1337,9 +1346,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1350,9 +1357,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1365,9 +1370,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1380,9 +1383,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1393,9 +1394,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1408,9 +1407,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1423,9 +1420,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1436,9 +1431,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1451,9 +1444,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1464,9 +1455,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1475,9 +1464,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1492,33 +1479,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1533,9 +1512,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1550,9 +1527,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1567,17 +1542,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -1586,9 +1557,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1599,9 +1568,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1612,9 +1579,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1627,47 +1592,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1676,269 +1601,436 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1948,10 +2040,10 @@
       <top style="medium">
         <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1959,10 +2051,10 @@
       <top style="medium">
         <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1972,54 +2064,344 @@
       <top style="medium">
         <color theme="1"/>
       </top>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color theme="1"/>
       </left>
       <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right style="medium">
-        <color theme="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right style="medium">
         <color theme="1"/>
       </right>
@@ -2029,665 +2411,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -2763,83 +2487,83 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2933,7 +2657,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2948,27 +2672,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2978,241 +2708,211 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="72" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="86" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3560,7 +3260,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3574,7 +3274,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.250000">
       <c r="A1" s="30" t="s">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -3587,70 +3287,70 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.250000">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="82" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="132.000000">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="90" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33.000000">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="75" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.500000" customHeight="1">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="D7" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="79" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3660,117 +3360,117 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="73" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="79" t="s">
+      <c r="E12" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="74" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="83" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="79" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3781,147 +3481,147 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="E19" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="33.000000">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="113" t="s">
         <v>167</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="100" t="s">
+      <c r="D20" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="104" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="49.500000">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="122" t="s">
+      <c r="B21" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="66.000000">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="115" t="s">
         <v>170</v>
       </c>
-      <c r="C22" s="81" t="s">
+      <c r="C22" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="33.000000">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="115" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="81" t="s">
+      <c r="C23" s="74" t="s">
         <v>186</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="79" t="s">
+      <c r="E23" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A24" s="76" t="s">
+      <c r="A24" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="115" t="s">
         <v>172</v>
       </c>
-      <c r="C24" s="81" t="s">
+      <c r="C24" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="79" t="s">
+      <c r="E24" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="33.000000">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="B25" s="123" t="s">
+      <c r="B25" s="115" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="81" t="s">
+      <c r="C25" s="74" t="s">
         <v>196</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="D25" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="80" t="s">
+      <c r="D26" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="79" t="s">
+      <c r="E26" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="85"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="79"/>
     </row>
     <row r="28" ht="15.000000" customHeight="1"/>
     <row r="29" spans="1:5" ht="15.000000" customHeight="1">
@@ -3930,87 +3630,87 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="132.000000">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="113" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="112" t="s">
+      <c r="E31" s="104" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="27.000000" customHeight="1">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="122" t="s">
+      <c r="B32" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="79" t="s">
+      <c r="E32" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="82.500000">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="103" t="s">
         <v>208</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="115" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="74" t="s">
         <v>211</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="79" t="s">
+      <c r="E33" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.250000" customHeight="1">
-      <c r="A34" s="82" t="s">
+      <c r="A34" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="116" t="s">
         <v>200</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="D34" s="80" t="s">
+      <c r="D34" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="79" t="s">
+      <c r="E34" s="75" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4021,53 +3721,53 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="68" t="s">
+      <c r="E37" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="82.500000">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="B38" s="121" t="s">
+      <c r="B38" s="113" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="D38" s="100" t="s">
+      <c r="D38" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="112" t="s">
+      <c r="E38" s="104" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="33.750000">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="C39" s="84" t="s">
+      <c r="C39" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="104" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4078,53 +3778,53 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.000000" customHeight="1">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="67" t="s">
+      <c r="D42" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="115.500000">
-      <c r="A43" s="111" t="s">
+      <c r="A43" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="113" t="s">
         <v>224</v>
       </c>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="93" t="s">
         <v>226</v>
       </c>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="112" t="s">
+      <c r="E43" s="104" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="33.750000">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="D44" s="100" t="s">
+      <c r="D44" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="112" t="s">
+      <c r="E44" s="104" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4154,104 +3854,104 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="79.500000" customHeight="1">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="91" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="100" t="s">
+      <c r="B50" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="101" t="s">
+      <c r="C50" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="D50" s="100" t="s">
+      <c r="D50" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="102" t="s">
+      <c r="E50" s="94" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="66.000000">
-      <c r="A51" s="103" t="s">
+      <c r="A51" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="80" t="s">
+      <c r="B51" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="81" t="s">
+      <c r="C51" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E51" s="104" t="s">
+      <c r="E51" s="96" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="93.000000" customHeight="1">
-      <c r="A52" s="103" t="s">
+      <c r="A52" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="80" t="s">
+      <c r="B52" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="81" t="s">
+      <c r="C52" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="80" t="s">
+      <c r="D52" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="104" t="s">
+      <c r="E52" s="96" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="198.000000">
-      <c r="A53" s="103" t="s">
+      <c r="A53" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="C53" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="D53" s="80" t="s">
+      <c r="D53" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="104" t="s">
+      <c r="E53" s="96" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="82.500000">
-      <c r="A54" s="103" t="s">
+      <c r="A54" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="81" t="s">
+      <c r="C54" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="D54" s="80" t="s">
+      <c r="D54" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="104" t="s">
+      <c r="E54" s="96" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="50.250000">
-      <c r="A55" s="105" t="s">
+      <c r="A55" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="84" t="s">
+      <c r="C55" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="83" t="s">
+      <c r="D55" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="106" t="s">
+      <c r="E55" s="98" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4278,172 +3978,172 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="66.000000">
-      <c r="A59" s="54" t="s">
+      <c r="A59" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="56" t="s">
+      <c r="C59" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="D59" s="100" t="s">
+      <c r="D59" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="102" t="s">
+      <c r="E59" s="94" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="82.500000">
-      <c r="A60" s="58" t="s">
+      <c r="A60" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D60" s="80" t="s">
+      <c r="D60" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E60" s="104" t="s">
+      <c r="E60" s="96" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="66.000000">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="59" t="s">
+      <c r="B61" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="D61" s="80" t="s">
+      <c r="D61" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="104" t="s">
+      <c r="E61" s="96" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="33.000000">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="59" t="s">
+      <c r="D62" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="102" t="s">
+      <c r="E62" s="94" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="33.000000">
-      <c r="A63" s="58" t="s">
+      <c r="A63" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="59" t="s">
+      <c r="D63" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="104" t="s">
+      <c r="E63" s="96" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="33.000000">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="60" t="s">
+      <c r="C64" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="59" t="s">
+      <c r="D64" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="104" t="s">
+      <c r="E64" s="96" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="33.000000">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="59" t="s">
+      <c r="B65" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="D65" s="59" t="s">
+      <c r="D65" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="102" t="s">
+      <c r="E65" s="94" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="33.000000">
-      <c r="A66" s="58" t="s">
+      <c r="A66" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="59" t="s">
+      <c r="D66" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="104" t="s">
+      <c r="E66" s="96" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="33.000000">
-      <c r="A67" s="58" t="s">
+      <c r="A67" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="59" t="s">
+      <c r="D67" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E67" s="104" t="s">
+      <c r="E67" s="96" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="17.250000">
-      <c r="A68" s="62" t="s">
+      <c r="A68" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="63" t="s">
+      <c r="D68" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="104" t="s">
+      <c r="E68" s="96" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4453,79 +4153,79 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D71" s="67" t="s">
+      <c r="D71" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="68" t="s">
+      <c r="E71" s="64" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="82.500000">
-      <c r="A72" s="111" t="s">
+      <c r="A72" s="103" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="100" t="s">
+      <c r="B72" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="100" t="s">
+      <c r="D72" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="112" t="s">
+      <c r="E72" s="104" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="82.500000">
-      <c r="A73" s="76" t="s">
+      <c r="A73" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="B73" s="80" t="s">
+      <c r="B73" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="81" t="s">
+      <c r="C73" s="74" t="s">
         <v>153</v>
       </c>
-      <c r="D73" s="80" t="s">
+      <c r="D73" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E73" s="79" t="s">
+      <c r="E73" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="49.500000">
-      <c r="A74" s="113" t="s">
+      <c r="A74" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="B74" s="108" t="s">
+      <c r="B74" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="109" t="s">
+      <c r="C74" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="D74" s="108" t="s">
+      <c r="D74" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="106" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="17.250000">
-      <c r="A75" s="115"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="116"/>
-      <c r="E75" s="118"/>
+      <c r="A75" s="107"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="109"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="110"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="21" t="s">

--- a/document/요구사항정의서_통합_20180809_V0.1.xlsx
+++ b/document/요구사항정의서_통합_20180809_V0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>요구사항 정의서0</t>
+  </si>
+  <si>
+    <t>요구사항 정의서1</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1268,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1276,7 +1281,9 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1285,7 +1292,9 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1296,7 +1305,9 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1309,7 +1320,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1320,7 +1333,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1333,7 +1348,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1346,7 +1363,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1357,7 +1376,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1370,7 +1391,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1383,7 +1406,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1394,7 +1419,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1407,7 +1434,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1420,7 +1449,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1431,7 +1462,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1444,7 +1477,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1455,7 +1490,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1464,7 +1501,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1479,25 +1518,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1512,7 +1559,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1527,7 +1576,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -1542,13 +1593,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -1557,7 +1612,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1568,7 +1625,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1579,7 +1638,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1592,7 +1653,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1601,7 +1664,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1612,7 +1677,9 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1621,7 +1688,9 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1632,7 +1701,9 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1641,7 +1712,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1650,7 +1723,9 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1661,7 +1736,9 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1670,7 +1747,9 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1681,7 +1760,9 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1696,7 +1777,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1711,7 +1794,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1726,7 +1811,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1741,7 +1828,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1756,7 +1845,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1771,7 +1862,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1786,7 +1879,9 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1801,7 +1896,9 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1816,7 +1913,9 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1827,7 +1926,9 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1836,7 +1937,9 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1847,7 +1950,9 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1858,7 +1963,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1871,7 +1978,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1882,7 +1991,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -1895,7 +2006,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1910,7 +2023,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1925,7 +2040,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1940,7 +2057,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -1955,7 +2074,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1970,7 +2091,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1985,7 +2108,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2000,7 +2125,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2015,7 +2142,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2030,7 +2159,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2043,7 +2174,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -2054,7 +2187,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -2067,7 +2202,9 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2080,7 +2217,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -2093,7 +2232,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2106,7 +2247,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2119,7 +2262,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2134,7 +2279,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2149,7 +2296,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2164,7 +2313,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2177,7 +2328,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2190,7 +2343,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2205,7 +2360,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2220,7 +2377,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2235,7 +2394,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2250,7 +2411,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2265,7 +2428,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2280,7 +2445,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2295,7 +2462,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2310,7 +2479,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2323,7 +2494,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2338,7 +2511,9 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2353,7 +2528,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2368,7 +2545,9 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="medium">
@@ -2381,7 +2560,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2396,7 +2577,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2411,7 +2594,9 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -3260,7 +3445,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3274,7 +3459,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.250000">
       <c r="A1" s="30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>

--- a/document/요구사항정의서_통합_20180809_V0.1.xlsx
+++ b/document/요구사항정의서_통합_20180809_V0.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>요구사항 정의서1</t>
+  </si>
+  <si>
+    <t>요구사항 정의서2</t>
   </si>
 </sst>
 </file>
@@ -1268,9 +1271,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1281,9 +1282,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1292,9 +1291,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1305,9 +1302,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1320,9 +1315,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1333,9 +1326,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1348,9 +1339,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1363,9 +1352,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1376,9 +1363,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1391,9 +1376,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1406,9 +1389,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1419,9 +1400,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1434,9 +1413,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1449,9 +1426,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1462,9 +1437,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1477,9 +1450,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1490,9 +1461,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1501,9 +1470,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1518,33 +1485,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1559,9 +1518,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1576,9 +1533,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1593,17 +1548,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -1612,9 +1563,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1625,9 +1574,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1638,9 +1585,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1653,9 +1598,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1664,9 +1607,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1677,9 +1618,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1688,9 +1627,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1701,9 +1638,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1712,9 +1647,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1723,9 +1656,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1736,9 +1667,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1747,9 +1676,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1760,9 +1687,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1777,9 +1702,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1794,9 +1717,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1811,9 +1732,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1828,9 +1747,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1845,9 +1762,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1862,9 +1777,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1879,9 +1792,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1896,9 +1807,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1913,9 +1822,7 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1926,9 +1833,7 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1937,9 +1842,7 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1950,9 +1853,7 @@
         <color theme="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1963,9 +1864,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1978,9 +1877,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1991,9 +1888,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2006,9 +1901,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2023,9 +1916,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2040,9 +1931,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2057,9 +1946,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2074,9 +1961,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2091,9 +1976,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2108,9 +1991,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2125,9 +2006,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2142,9 +2021,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2159,9 +2036,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2174,9 +2049,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2187,9 +2060,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2202,9 +2073,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2217,9 +2086,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -2232,9 +2099,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2247,9 +2112,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2262,9 +2125,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2279,9 +2140,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2296,9 +2155,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2313,9 +2170,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2328,9 +2183,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2343,9 +2196,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2360,9 +2211,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2377,9 +2226,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2394,9 +2241,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2411,9 +2256,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2428,9 +2271,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2445,9 +2286,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2462,9 +2301,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2479,9 +2316,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2494,9 +2329,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2511,9 +2344,7 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2528,9 +2359,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2545,9 +2374,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -2560,9 +2387,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2577,9 +2402,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2594,9 +2417,7 @@
       <bottom style="medium">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -3459,7 +3280,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.250000">
       <c r="A1" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
